--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Distributor Code</t>
-  </si>
-  <si>
-    <t>Distributor Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -33,16 +24,34 @@
     <t>Product SKU Name</t>
   </si>
   <si>
-    <t>Quantity(Kg/Ltr)</t>
-  </si>
-  <si>
-    <t>0000014</t>
-  </si>
-  <si>
-    <t>abc6</t>
-  </si>
-  <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>Retailer Code</t>
+  </si>
+  <si>
+    <t>Retailer Name</t>
+  </si>
+  <si>
+    <t>Invoice No</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>PO No</t>
+  </si>
+  <si>
+    <t>Order Tracking No</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -78,11 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,78 +398,120 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <v>42560</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2">
+        <v>58515696</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="J2">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>42560</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <v>42558</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3">
         <v>58515696</v>
       </c>
-      <c r="F2">
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>42560</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <v>42574</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4">
         <v>58515696</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>42560</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
+        <v>42576</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <v>58515696</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>0000064</t>
+  </si>
+  <si>
+    <t>abc11</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>0000074</t>
+  </si>
+  <si>
+    <t>abc12</t>
+  </si>
+  <si>
+    <t>packages</t>
   </si>
 </sst>
 </file>
@@ -87,10 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,79 +458,73 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6766</v>
+      </c>
       <c r="D2" s="2">
-        <v>42560</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>42562</v>
+      </c>
+      <c r="E2" s="1">
+        <v>145545</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7667</v>
+      </c>
       <c r="G2">
         <v>58515696</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
       <c r="J2">
         <v>11</v>
       </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1256</v>
+      </c>
       <c r="D3" s="2">
-        <v>42558</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>42563</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34567</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43887</v>
+      </c>
       <c r="G3">
         <v>58515696</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
       <c r="J3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
-        <v>42574</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4">
-        <v>58515696</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2">
-        <v>42576</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5">
-        <v>58515696</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
+      <c r="K3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -76,6 +76,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -108,8 +111,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +410,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,7 +461,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -467,7 +470,7 @@
       <c r="C2" s="1">
         <v>6766</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>42562</v>
       </c>
       <c r="E2" s="1">
@@ -493,7 +496,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -502,7 +505,7 @@
       <c r="C3" s="1">
         <v>1256</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>42563</v>
       </c>
       <c r="E3" s="1">

--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -77,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -112,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,9 +479,6 @@
       <c r="F2" s="1">
         <v>7667</v>
       </c>
-      <c r="G2">
-        <v>58515696</v>
-      </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
@@ -508,9 +505,7 @@
       <c r="D3" s="3">
         <v>42563</v>
       </c>
-      <c r="E3" s="1">
-        <v>34567</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>43887</v>
       </c>

--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="secondarysales_distributor" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -410,7 +408,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -529,28 +527,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -106,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,19 +409,20 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -442,24 +444,24 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -468,7 +470,7 @@
       <c r="C2" s="1">
         <v>6766</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>42562</v>
       </c>
       <c r="E2" s="1">
@@ -477,21 +479,21 @@
       <c r="F2" s="1">
         <v>7667</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>11</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -500,26 +502,26 @@
       <c r="C3" s="1">
         <v>1256</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>42563</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>43887</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>58515696</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>20</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -106,12 +106,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,120 +418,126 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="3"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>6766</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>42562</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
+        <v>7667</v>
+      </c>
+      <c r="F2" s="2">
         <v>145545</v>
       </c>
-      <c r="F2" s="1">
-        <v>7667</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3">
+        <v>58515696</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2">
-        <v>10</v>
+      <c r="J2" s="3">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1256</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>42563</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="E3" s="2">
         <v>43887</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
+        <v>65445</v>
+      </c>
+      <c r="G3" s="3">
         <v>58515696</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2">
-        <v>20</v>
+      <c r="J3" s="3">
+        <v>120</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -418,7 +418,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,9 +492,6 @@
       <c r="G2" s="3">
         <v>58515696</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
@@ -521,9 +518,7 @@
       <c r="E3" s="2">
         <v>43887</v>
       </c>
-      <c r="F3" s="2">
-        <v>65445</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="3">
         <v>58515696</v>
       </c>

--- a/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
+++ b/public/assets/uploads/Uploads/secondary_sales/secondarysales_distributor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Product SKU Name</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Retailer Code</t>
   </si>
   <si>
@@ -50,33 +47,12 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>0000064</t>
-  </si>
-  <si>
-    <t>abc11</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>0000074</t>
-  </si>
-  <si>
-    <t>abc12</t>
-  </si>
-  <si>
-    <t>packages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -106,19 +82,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,22 +407,22 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -461,78 +431,13 @@
         <v>1</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6766</v>
-      </c>
-      <c r="D2" s="5">
-        <v>42562</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7667</v>
-      </c>
-      <c r="F2" s="2">
-        <v>145545</v>
-      </c>
-      <c r="G2" s="3">
-        <v>58515696</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3">
-        <v>150</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1256</v>
-      </c>
-      <c r="D3" s="5">
-        <v>42563</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43887</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3">
-        <v>58515696</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3">
-        <v>120</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1500</v>
       </c>
     </row>
   </sheetData>
